--- a/stats/pivot/UD_French-ParTUT/VERB-obl.xlsx
+++ b/stats/pivot/UD_French-ParTUT/VERB-obl.xlsx
@@ -12,10 +12,10 @@
     <sheet name="a_phrases" sheetId="3" r:id="rId3"/>
     <sheet name="mis_stats" sheetId="4" r:id="rId4"/>
     <sheet name="mis_phrases" sheetId="5" r:id="rId5"/>
-    <sheet name="soumis_stats" sheetId="6" r:id="rId6"/>
-    <sheet name="soumis_phrases" sheetId="7" r:id="rId7"/>
-    <sheet name="tenu_stats" sheetId="8" r:id="rId8"/>
-    <sheet name="tenu_phrases" sheetId="9" r:id="rId9"/>
+    <sheet name="tenu_stats" sheetId="6" r:id="rId6"/>
+    <sheet name="tenu_phrases" sheetId="7" r:id="rId7"/>
+    <sheet name="soumis_stats" sheetId="8" r:id="rId8"/>
+    <sheet name="soumis_phrases" sheetId="9" r:id="rId9"/>
     <sheet name="ont_stats" sheetId="10" r:id="rId10"/>
     <sheet name="ont_phrases" sheetId="11" r:id="rId11"/>
     <sheet name="faire_stats" sheetId="12" r:id="rId12"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="1055">
   <si>
     <t>nb_occurences</t>
   </si>
@@ -48,12 +48,12 @@
     <t>mis</t>
   </si>
   <si>
+    <t>tenu</t>
+  </si>
+  <si>
     <t>soumis</t>
   </si>
   <si>
-    <t>tenu</t>
-  </si>
-  <si>
     <t>ont</t>
   </si>
   <si>
@@ -114,6 +114,9 @@
     <t>reproduire</t>
   </si>
   <si>
+    <t>prévues</t>
+  </si>
+  <si>
     <t>demander</t>
   </si>
   <si>
@@ -132,12 +135,24 @@
     <t>entre</t>
   </si>
   <si>
+    <t>accordée</t>
+  </si>
+  <si>
+    <t>imposées</t>
+  </si>
+  <si>
     <t>appliquer</t>
   </si>
   <si>
+    <t>établi</t>
+  </si>
+  <si>
     <t>augmenté</t>
   </si>
   <si>
+    <t>prises</t>
+  </si>
+  <si>
     <t>aura</t>
   </si>
   <si>
@@ -150,9 +165,15 @@
     <t>ajouter</t>
   </si>
   <si>
+    <t>rendues</t>
+  </si>
+  <si>
     <t>incorporée</t>
   </si>
   <si>
+    <t>autorisés</t>
+  </si>
+  <si>
     <t>soumettent</t>
   </si>
   <si>
@@ -177,9 +198,6 @@
     <t>figure</t>
   </si>
   <si>
-    <t>prises</t>
-  </si>
-  <si>
     <t>signalé</t>
   </si>
   <si>
@@ -192,6 +210,9 @@
     <t>devons</t>
   </si>
   <si>
+    <t>présentés</t>
+  </si>
+  <si>
     <t>attire</t>
   </si>
   <si>
@@ -216,6 +237,12 @@
     <t>adoptées</t>
   </si>
   <si>
+    <t>établies</t>
+  </si>
+  <si>
+    <t>présentées</t>
+  </si>
+  <si>
     <t>provenaient</t>
   </si>
   <si>
@@ -231,6 +258,9 @@
     <t>nommés</t>
   </si>
   <si>
+    <t>proposé</t>
+  </si>
+  <si>
     <t>renvoient</t>
   </si>
   <si>
@@ -243,9 +273,6 @@
     <t>apparaître</t>
   </si>
   <si>
-    <t>imposées</t>
-  </si>
-  <si>
     <t>applique</t>
   </si>
   <si>
@@ -255,9 +282,6 @@
     <t>demande</t>
   </si>
   <si>
-    <t>établi</t>
-  </si>
-  <si>
     <t>souscrit</t>
   </si>
   <si>
@@ -285,15 +309,15 @@
     <t>donner</t>
   </si>
   <si>
-    <t>présentés</t>
-  </si>
-  <si>
     <t>tiens</t>
   </si>
   <si>
     <t>convient</t>
   </si>
   <si>
+    <t>transportées</t>
+  </si>
+  <si>
     <t>satisfaire</t>
   </si>
   <si>
@@ -315,12 +339,18 @@
     <t>retrouvions</t>
   </si>
   <si>
+    <t>repris</t>
+  </si>
+  <si>
     <t>devenu</t>
   </si>
   <si>
     <t>demandons</t>
   </si>
   <si>
+    <t>permis</t>
+  </si>
+  <si>
     <t>reflète</t>
   </si>
   <si>
@@ -330,9 +360,6 @@
     <t>participer</t>
   </si>
   <si>
-    <t>accordée</t>
-  </si>
-  <si>
     <t>donné</t>
   </si>
   <si>
@@ -348,27 +375,24 @@
     <t>devrait</t>
   </si>
   <si>
+    <t>adoptée</t>
+  </si>
+  <si>
     <t>étendu</t>
   </si>
   <si>
-    <t>établies</t>
-  </si>
-  <si>
     <t>accompagnée</t>
   </si>
   <si>
     <t>menées</t>
   </si>
   <si>
-    <t>présentées</t>
-  </si>
-  <si>
-    <t>prévues</t>
-  </si>
-  <si>
     <t>recherché</t>
   </si>
   <si>
+    <t>coordonnées</t>
+  </si>
+  <si>
     <t>eu</t>
   </si>
   <si>
@@ -396,6 +420,9 @@
     <t>effectuer</t>
   </si>
   <si>
+    <t>limitée</t>
+  </si>
+  <si>
     <t>apparaissent</t>
   </si>
   <si>
@@ -444,6 +471,9 @@
     <t>voté</t>
   </si>
   <si>
+    <t>présentée</t>
+  </si>
+  <si>
     <t>servent</t>
   </si>
   <si>
@@ -474,6 +504,9 @@
     <t>arrive</t>
   </si>
   <si>
+    <t>imposé</t>
+  </si>
+  <si>
     <t>coûté</t>
   </si>
   <si>
@@ -483,12 +516,18 @@
     <t>augmenter</t>
   </si>
   <si>
+    <t>déposée</t>
+  </si>
+  <si>
     <t>viens</t>
   </si>
   <si>
     <t>présenté</t>
   </si>
   <si>
+    <t>projetée</t>
+  </si>
+  <si>
     <t>discuter</t>
   </si>
   <si>
@@ -507,9 +546,6 @@
     <t>reprenant</t>
   </si>
   <si>
-    <t>transportées</t>
-  </si>
-  <si>
     <t>pourrait</t>
   </si>
   <si>
@@ -558,9 +594,6 @@
     <t>centrer</t>
   </si>
   <si>
-    <t>repris</t>
-  </si>
-  <si>
     <t>approuvées</t>
   </si>
   <si>
@@ -615,9 +648,6 @@
     <t>converti</t>
   </si>
   <si>
-    <t>permis</t>
-  </si>
-  <si>
     <t>conduit</t>
   </si>
   <si>
@@ -675,15 +705,18 @@
     <t>conclus</t>
   </si>
   <si>
+    <t>déployés</t>
+  </si>
+  <si>
     <t>découlant</t>
   </si>
   <si>
+    <t>désigné</t>
+  </si>
+  <si>
     <t>concerne</t>
   </si>
   <si>
-    <t>adoptée</t>
-  </si>
-  <si>
     <t>publiée</t>
   </si>
   <si>
@@ -693,6 +726,9 @@
     <t>établissant</t>
   </si>
   <si>
+    <t>engagées</t>
+  </si>
+  <si>
     <t>stabilisé</t>
   </si>
   <si>
@@ -726,9 +762,6 @@
     <t>compte</t>
   </si>
   <si>
-    <t>coordonnées</t>
-  </si>
-  <si>
     <t>adopteront</t>
   </si>
   <si>
@@ -801,15 +834,24 @@
     <t>annexé</t>
   </si>
   <si>
+    <t>ratifié</t>
+  </si>
+  <si>
     <t>entrent</t>
   </si>
   <si>
+    <t>adoptés</t>
+  </si>
+  <si>
     <t>visés</t>
   </si>
   <si>
     <t>statue</t>
   </si>
   <si>
+    <t>assistée</t>
+  </si>
+  <si>
     <t>versé</t>
   </si>
   <si>
@@ -834,6 +876,9 @@
     <t>fournit</t>
   </si>
   <si>
+    <t>protégée</t>
+  </si>
+  <si>
     <t>proposent</t>
   </si>
   <si>
@@ -858,6 +903,9 @@
     <t>associé</t>
   </si>
   <si>
+    <t>spécifié</t>
+  </si>
+  <si>
     <t>identifiant</t>
   </si>
   <si>
@@ -927,6 +975,12 @@
     <t>intervenir</t>
   </si>
   <si>
+    <t>exprimée</t>
+  </si>
+  <si>
+    <t>concernés</t>
+  </si>
+  <si>
     <t>accuser</t>
   </si>
   <si>
@@ -957,6 +1011,9 @@
     <t>publiées</t>
   </si>
   <si>
+    <t>exprimées</t>
+  </si>
+  <si>
     <t>apportées</t>
   </si>
   <si>
@@ -987,9 +1044,6 @@
     <t>détient</t>
   </si>
   <si>
-    <t>présentée</t>
-  </si>
-  <si>
     <t>rappelle</t>
   </si>
   <si>
@@ -1038,7 +1092,7 @@
     <t>provoquent</t>
   </si>
   <si>
-    <t>imposé</t>
+    <t>provoquées</t>
   </si>
   <si>
     <t>ai</t>
@@ -1053,6 +1107,9 @@
     <t>évoluer</t>
   </si>
   <si>
+    <t>appliqués</t>
+  </si>
+  <si>
     <t>devions</t>
   </si>
   <si>
@@ -1104,9 +1161,6 @@
     <t>soutiens</t>
   </si>
   <si>
-    <t>déposée</t>
-  </si>
-  <si>
     <t>viser</t>
   </si>
   <si>
@@ -1128,12 +1182,12 @@
     <t>prévalant</t>
   </si>
   <si>
-    <t>projetée</t>
-  </si>
-  <si>
     <t>pouvons</t>
   </si>
   <si>
+    <t>acceptés</t>
+  </si>
+  <si>
     <t>organiserons</t>
   </si>
   <si>
@@ -1149,9 +1203,6 @@
     <t>liée</t>
   </si>
   <si>
-    <t>limitée</t>
-  </si>
-  <si>
     <t>entrée</t>
   </si>
   <si>
@@ -1185,6 +1236,9 @@
     <t>redéfini</t>
   </si>
   <si>
+    <t>introduites</t>
+  </si>
+  <si>
     <t>fixé</t>
   </si>
   <si>
@@ -1428,6 +1482,9 @@
     <t>entrons</t>
   </si>
   <si>
+    <t>causés</t>
+  </si>
+  <si>
     <t>assurent</t>
   </si>
   <si>
@@ -1512,12 +1569,12 @@
     <t>exprimé</t>
   </si>
   <si>
-    <t>rendues</t>
-  </si>
-  <si>
     <t>gérer</t>
   </si>
   <si>
+    <t>proposées</t>
+  </si>
+  <si>
     <t>affiliés</t>
   </si>
   <si>
@@ -1587,6 +1644,9 @@
     <t>surgit</t>
   </si>
   <si>
+    <t>justifiées</t>
+  </si>
+  <si>
     <t>faciliter</t>
   </si>
   <si>
@@ -1611,15 +1671,24 @@
     <t>intitulée</t>
   </si>
   <si>
+    <t>facilitée</t>
+  </si>
+  <si>
     <t>réglementés</t>
   </si>
   <si>
+    <t>concernées</t>
+  </si>
+  <si>
     <t>diminuer</t>
   </si>
   <si>
     <t>préservée</t>
   </si>
   <si>
+    <t>prévus</t>
+  </si>
+  <si>
     <t>envisagées</t>
   </si>
   <si>
@@ -1662,6 +1731,9 @@
     <t>accordent</t>
   </si>
   <si>
+    <t>remplacées</t>
+  </si>
+  <si>
     <t>élargissant</t>
   </si>
   <si>
@@ -1698,6 +1770,9 @@
     <t>atteints</t>
   </si>
   <si>
+    <t>ciblés</t>
+  </si>
+  <si>
     <t>jugées</t>
   </si>
   <si>
@@ -1758,6 +1833,9 @@
     <t>rassemble</t>
   </si>
   <si>
+    <t>assurée</t>
+  </si>
+  <si>
     <t>considérant</t>
   </si>
   <si>
@@ -1776,12 +1854,12 @@
     <t>élaboré</t>
   </si>
   <si>
-    <t>proposé</t>
-  </si>
-  <si>
     <t>reste</t>
   </si>
   <si>
+    <t>fournie</t>
+  </si>
+  <si>
     <t>bénéficié</t>
   </si>
   <si>
@@ -1797,6 +1875,9 @@
     <t>libérés</t>
   </si>
   <si>
+    <t>protégés</t>
+  </si>
+  <si>
     <t>instaurer</t>
   </si>
   <si>
@@ -1824,12 +1905,18 @@
     <t>fondée</t>
   </si>
   <si>
+    <t>reconnus</t>
+  </si>
+  <si>
     <t>dirigée</t>
   </si>
   <si>
     <t>décidera</t>
   </si>
   <si>
+    <t>entendue</t>
+  </si>
+  <si>
     <t>présumée</t>
   </si>
   <si>
@@ -2040,6 +2127,9 @@
     <t>larguée</t>
   </si>
   <si>
+    <t>frappée</t>
+  </si>
+  <si>
     <t>hérité</t>
   </si>
   <si>
@@ -2061,6 +2151,9 @@
     <t>autorisée</t>
   </si>
   <si>
+    <t>exigées</t>
+  </si>
+  <si>
     <t>mentionnées</t>
   </si>
   <si>
@@ -2103,6 +2196,9 @@
     <t>porté</t>
   </si>
   <si>
+    <t>intéressés</t>
+  </si>
+  <si>
     <t>porter</t>
   </si>
   <si>
@@ -2115,7 +2211,7 @@
     <t>revenir</t>
   </si>
   <si>
-    <t>ratifié</t>
+    <t>complétée</t>
   </si>
   <si>
     <t>rédigé</t>
@@ -2133,16 +2229,10 @@
     <t>soumet</t>
   </si>
   <si>
-    <t>engagées</t>
-  </si>
-  <si>
     <t>peuvent</t>
   </si>
   <si>
-    <t>assistée</t>
-  </si>
-  <si>
-    <t>autorisés</t>
+    <t>recouvrée</t>
   </si>
   <si>
     <t>dépensée</t>
@@ -2553,12 +2643,111 @@
     <t>acl</t>
   </si>
   <si>
+    <t>fr_partut-ud-48</t>
+  </si>
+  <si>
+    <t>fr_partut-ud-62</t>
+  </si>
+  <si>
+    <t>fr_partut-ud-122</t>
+  </si>
+  <si>
+    <t>fr_partut-ud-318</t>
+  </si>
+  <si>
+    <t>fr_partut-ud-390</t>
+  </si>
+  <si>
+    <t>fr_partut-ud-594</t>
+  </si>
+  <si>
+    <t>fr_partut-ud-595</t>
+  </si>
+  <si>
+    <t>fr_partut-ud-726</t>
+  </si>
+  <si>
+    <t>fr_partut-ud-731</t>
+  </si>
+  <si>
+    <t>fr_partut-ud-753</t>
+  </si>
+  <si>
+    <t>fr_partut-ud-372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À l'exception des garanties d'ordre public imposées par la loi applicable et des réparations imposées par le régime de la responsabilité vis-à-vis d'un tiers en raison de la violation des garanties prévues par l'article 5 du présent contrat, l'offrant ne sera en aucun cas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'offrant ne sera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La décision d'aujourd'hui de ne pas renouveler l'embargo est extrêmement dangereuse, compte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous estimons fort positif que, dans ses conclusions, le rapporteur ait </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De telles mesures peuvent également concourir à l'utilisation durable des ressources et apporter une contribution importante au cadre décennal de programmes sur la production et la consommation durables adopté lors du sommet mondial sur le développement durable qui s'est </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conformément à l'article 13 de la décision du conseil du 17 décembre 2001 établissant un programme d'action en matière d'échanges, d'assistance et de formation, pour la protection de l'euro contre le faux monnayage (le programme «Pericles»), et compte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En conformité également avec la recommandation de l'évaluateur du programme Pericles, il convient de proroger le programme, compte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nul ne sera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">elle s'est consacrée à fond à sa tâche et, lors de l'examen en commission, a </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> responsable vis-à-vis de l'acceptant, sur la base d'aucune théorie légale ni en raison de aucun préjudice direct, indirect, matériel ou moral, résultant de l'exécution du présent contrat ou de l'utilisation de l'oeuvre, y compris dans l'hypothèse où l'offrant avait connaissance de la possible existence d'un tel préjudice. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> par aucune disposition supplémentaire qui pourrait apparaître dans une quelconque communication en provenance de l'acceptant. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> de la situation sur place. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> compte de notre proposition selon laquelle les infrastructures de la recherche devraient être élargies dans les pays de la cohésion en implantant les écoles professionnelles et les universités de telle sorte qu'elles servent mieux les populations des régions les moins développées et qu'elles permettent aux personnes formées de demeurer dans leur région d'origine. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> de ce qui précède, nous devons exiger en tout cas, à partir de cette assemblée, que les cadres communautaires d'appui pour la période en question soient étudiés et soumis au débat dans ce parlement, avant leur adoption et à la lumière des orientations que nous présentons aujourd'hui. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> de la nécessité urgente de contribuer au respect des engagements pris dans le cadre du protocole de Kyoto à la convention-cadre des Nations Unies sur les changements climatiques (CCNUCC), et sans préjudice de l'approche intégrée encouragée dans la présente directive, il convient d'accorder une certaine priorité aux mesures qui présentent un fort potentiel de réduction à faible coût des émissions de gaz à effet de serre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> à Johannesburg en septembre 2002. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> du rapport d'évaluation Pericles du 30 novembre 2004, il est proposé de proroger et de modifier la décision du conseil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> de la nécessité: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> en esclavage ni en servitude; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> compte des nombreux amendements qui ont été apportés. </t>
+  </si>
+  <si>
+    <t>tenir</t>
+  </si>
+  <si>
+    <t>advcl</t>
+  </si>
+  <si>
     <t>fr_partut-ud-209</t>
   </si>
   <si>
-    <t>fr_partut-ud-390</t>
-  </si>
-  <si>
     <t>fr_partut-ud-649</t>
   </si>
   <si>
@@ -2589,9 +2778,6 @@
     <t xml:space="preserve">2. De plus, il ne sera fait aucune distinction fondée sur le statut politique, juridique ou international du pays ou du territoire dont une personne est ressortissante, que ce pays ou territoire soit indépendant, sous tutelle, non autonome ou </t>
   </si>
   <si>
-    <t xml:space="preserve">Nul ne sera </t>
-  </si>
-  <si>
     <t xml:space="preserve">2. Dans l'exercice de ses droits et dans la jouissance de ses libertés, chacun n'est </t>
   </si>
   <si>
@@ -2626,93 +2812,6 @@
   </si>
   <si>
     <t>Tense=Pres|VerbForm=Part</t>
-  </si>
-  <si>
-    <t>fr_partut-ud-48</t>
-  </si>
-  <si>
-    <t>fr_partut-ud-122</t>
-  </si>
-  <si>
-    <t>fr_partut-ud-318</t>
-  </si>
-  <si>
-    <t>fr_partut-ud-594</t>
-  </si>
-  <si>
-    <t>fr_partut-ud-595</t>
-  </si>
-  <si>
-    <t>fr_partut-ud-726</t>
-  </si>
-  <si>
-    <t>fr_partut-ud-731</t>
-  </si>
-  <si>
-    <t>fr_partut-ud-753</t>
-  </si>
-  <si>
-    <t>fr_partut-ud-372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À l'exception des garanties d'ordre public imposées par la loi applicable et des réparations imposées par le régime de la responsabilité vis-à-vis d'un tiers en raison de la violation des garanties prévues par l'article 5 du présent contrat, l'offrant ne sera en aucun cas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La décision d'aujourd'hui de ne pas renouveler l'embargo est extrêmement dangereuse, compte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nous estimons fort positif que, dans ses conclusions, le rapporteur ait </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">De telles mesures peuvent également concourir à l'utilisation durable des ressources et apporter une contribution importante au cadre décennal de programmes sur la production et la consommation durables adopté lors du sommet mondial sur le développement durable qui s'est </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conformément à l'article 13 de la décision du conseil du 17 décembre 2001 établissant un programme d'action en matière d'échanges, d'assistance et de formation, pour la protection de l'euro contre le faux monnayage (le programme «Pericles»), et compte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En conformité également avec la recommandation de l'évaluateur du programme Pericles, il convient de proroger le programme, compte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">elle s'est consacrée à fond à sa tâche et, lors de l'examen en commission, a </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> responsable vis-à-vis de l'acceptant, sur la base d'aucune théorie légale ni en raison de aucun préjudice direct, indirect, matériel ou moral, résultant de l'exécution du présent contrat ou de l'utilisation de l'oeuvre, y compris dans l'hypothèse où l'offrant avait connaissance de la possible existence d'un tel préjudice. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> de la situation sur place. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> compte de notre proposition selon laquelle les infrastructures de la recherche devraient être élargies dans les pays de la cohésion en implantant les écoles professionnelles et les universités de telle sorte qu'elles servent mieux les populations des régions les moins développées et qu'elles permettent aux personnes formées de demeurer dans leur région d'origine. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> de ce qui précède, nous devons exiger en tout cas, à partir de cette assemblée, que les cadres communautaires d'appui pour la période en question soient étudiés et soumis au débat dans ce parlement, avant leur adoption et à la lumière des orientations que nous présentons aujourd'hui. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> de la nécessité urgente de contribuer au respect des engagements pris dans le cadre du protocole de Kyoto à la convention-cadre des Nations Unies sur les changements climatiques (CCNUCC), et sans préjudice de l'approche intégrée encouragée dans la présente directive, il convient d'accorder une certaine priorité aux mesures qui présentent un fort potentiel de réduction à faible coût des émissions de gaz à effet de serre. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> à Johannesburg en septembre 2002. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> du rapport d'évaluation Pericles du 30 novembre 2004, il est proposé de proroger et de modifier la décision du conseil. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> de la nécessité: </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> en esclavage ni en servitude; </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> compte des nombreux amendements qui ont été apportés. </t>
-  </si>
-  <si>
-    <t>tenir</t>
-  </si>
-  <si>
-    <t>advcl</t>
   </si>
   <si>
     <t>fr_partut-ud-325</t>
@@ -3457,7 +3556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B715"/>
+  <dimension ref="A1:B745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3471,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1309</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3479,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>717</v>
+        <v>747</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3503,7 +3602,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3727,7 +3826,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3775,7 +3874,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3783,7 +3882,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3791,7 +3890,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3799,7 +3898,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3807,7 +3906,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3815,7 +3914,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3991,7 +4090,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3999,7 +4098,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4007,7 +4106,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4015,7 +4114,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4023,7 +4122,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4031,7 +4130,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4039,7 +4138,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4047,7 +4146,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4055,7 +4154,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4399,7 +4498,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4407,7 +4506,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4415,7 +4514,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4423,7 +4522,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4431,7 +4530,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4439,7 +4538,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4447,7 +4546,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4455,7 +4554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -5591,7 +5690,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5599,7 +5698,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5607,7 +5706,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5615,7 +5714,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5623,7 +5722,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5631,7 +5730,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5639,7 +5738,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5647,7 +5746,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5655,7 +5754,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5663,7 +5762,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5671,7 +5770,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5679,7 +5778,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5687,7 +5786,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5695,7 +5794,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -9175,6 +9274,246 @@
         <v>713</v>
       </c>
       <c r="B715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B745">
         <v>1</v>
       </c>
     </row>
@@ -9196,10 +9535,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9210,7 +9549,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.009167303284950344</v>
+        <v>0.008708272859216255</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -9231,46 +9570,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>724</v>
+        <v>754</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -9278,16 +9617,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>893</v>
+        <v>926</v>
       </c>
       <c r="C2" t="s">
-        <v>902</v>
+        <v>935</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>911</v>
+        <v>944</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -9296,28 +9635,28 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J2" t="s">
-        <v>920</v>
+        <v>953</v>
       </c>
       <c r="K2" t="s">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -9325,16 +9664,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>894</v>
+        <v>927</v>
       </c>
       <c r="C3" t="s">
-        <v>903</v>
+        <v>936</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>912</v>
+        <v>945</v>
       </c>
       <c r="F3">
         <v>16</v>
@@ -9343,28 +9682,28 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J3" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K3" t="s">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="L3">
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>803</v>
+        <v>833</v>
       </c>
       <c r="N3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -9372,16 +9711,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>895</v>
+        <v>928</v>
       </c>
       <c r="C4" t="s">
-        <v>904</v>
+        <v>937</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>913</v>
+        <v>946</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -9390,28 +9729,28 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J4" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K4" t="s">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -9419,16 +9758,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>895</v>
+        <v>928</v>
       </c>
       <c r="C5" t="s">
-        <v>904</v>
+        <v>937</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>913</v>
+        <v>946</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -9437,28 +9776,28 @@
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J5" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K5" t="s">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -9466,16 +9805,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>896</v>
+        <v>929</v>
       </c>
       <c r="C6" t="s">
-        <v>905</v>
+        <v>938</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>914</v>
+        <v>947</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -9484,28 +9823,28 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J6" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K6" t="s">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="L6">
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>803</v>
+        <v>833</v>
       </c>
       <c r="N6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -9513,16 +9852,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>896</v>
+        <v>929</v>
       </c>
       <c r="C7" t="s">
-        <v>905</v>
+        <v>938</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>914</v>
+        <v>947</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -9531,28 +9870,28 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J7" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K7" t="s">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="L7">
         <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>803</v>
+        <v>833</v>
       </c>
       <c r="N7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -9560,16 +9899,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>897</v>
+        <v>930</v>
       </c>
       <c r="C8" t="s">
-        <v>906</v>
+        <v>939</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>915</v>
+        <v>948</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -9578,28 +9917,28 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J8" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K8" t="s">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -9607,16 +9946,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>898</v>
+        <v>931</v>
       </c>
       <c r="C9" t="s">
-        <v>907</v>
+        <v>940</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>916</v>
+        <v>949</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -9625,28 +9964,28 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J9" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K9" t="s">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -9654,16 +9993,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>898</v>
+        <v>931</v>
       </c>
       <c r="C10" t="s">
-        <v>907</v>
+        <v>940</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>916</v>
+        <v>949</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -9672,28 +10011,28 @@
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J10" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K10" t="s">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -9701,16 +10040,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>899</v>
+        <v>932</v>
       </c>
       <c r="C11" t="s">
-        <v>908</v>
+        <v>941</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>917</v>
+        <v>950</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -9719,28 +10058,28 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I11" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J11" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K11" t="s">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N11" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O11" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -9748,16 +10087,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="C12" t="s">
-        <v>909</v>
+        <v>942</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>918</v>
+        <v>951</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -9766,28 +10105,28 @@
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I12" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J12" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K12" t="s">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N12" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O12" t="s">
-        <v>922</v>
+        <v>955</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -9795,16 +10134,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>901</v>
+        <v>934</v>
       </c>
       <c r="C13" t="s">
-        <v>910</v>
+        <v>943</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>919</v>
+        <v>952</v>
       </c>
       <c r="F13">
         <v>30</v>
@@ -9813,28 +10152,28 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I13" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J13" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K13" t="s">
-        <v>921</v>
+        <v>954</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N13" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O13" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -9855,10 +10194,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9869,7 +10208,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>0.008403361344537815</v>
+        <v>0.007982583454281567</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -9890,46 +10229,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>724</v>
+        <v>754</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -9937,16 +10276,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>923</v>
+        <v>956</v>
       </c>
       <c r="C2" t="s">
-        <v>934</v>
+        <v>967</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>945</v>
+        <v>978</v>
       </c>
       <c r="F2">
         <v>34</v>
@@ -9958,25 +10297,25 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J2" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K2" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L2">
         <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="N2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -9984,16 +10323,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>924</v>
+        <v>957</v>
       </c>
       <c r="C3" t="s">
-        <v>935</v>
+        <v>968</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>946</v>
+        <v>979</v>
       </c>
       <c r="F3">
         <v>24</v>
@@ -10005,25 +10344,25 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J3" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K3" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L3">
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -10031,16 +10370,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>925</v>
+        <v>958</v>
       </c>
       <c r="C4" t="s">
-        <v>936</v>
+        <v>969</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>947</v>
+        <v>980</v>
       </c>
       <c r="F4">
         <v>47</v>
@@ -10052,25 +10391,25 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J4" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K4" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L4">
         <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>803</v>
+        <v>833</v>
       </c>
       <c r="N4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -10078,16 +10417,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>926</v>
+        <v>959</v>
       </c>
       <c r="C5" t="s">
-        <v>937</v>
+        <v>970</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>948</v>
+        <v>981</v>
       </c>
       <c r="F5">
         <v>47</v>
@@ -10099,25 +10438,25 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J5" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K5" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L5">
         <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -10125,16 +10464,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>927</v>
+        <v>960</v>
       </c>
       <c r="C6" t="s">
-        <v>938</v>
+        <v>971</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>949</v>
+        <v>982</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -10146,25 +10485,25 @@
         <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J6" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K6" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
       <c r="N6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -10172,16 +10511,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>928</v>
+        <v>961</v>
       </c>
       <c r="C7" t="s">
-        <v>939</v>
+        <v>972</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>950</v>
+        <v>983</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -10193,25 +10532,25 @@
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J7" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K7" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L7">
         <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -10219,16 +10558,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>929</v>
+        <v>962</v>
       </c>
       <c r="C8" t="s">
-        <v>940</v>
+        <v>973</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>951</v>
+        <v>984</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -10240,25 +10579,25 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J8" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K8" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -10266,16 +10605,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>930</v>
+        <v>963</v>
       </c>
       <c r="C9" t="s">
-        <v>941</v>
+        <v>974</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>952</v>
+        <v>985</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -10287,25 +10626,25 @@
         <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J9" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K9" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L9">
         <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -10313,16 +10652,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>931</v>
+        <v>964</v>
       </c>
       <c r="C10" t="s">
-        <v>942</v>
+        <v>975</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>953</v>
+        <v>986</v>
       </c>
       <c r="F10">
         <v>7</v>
@@ -10334,25 +10673,25 @@
         <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J10" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K10" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="N10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -10360,16 +10699,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>932</v>
+        <v>965</v>
       </c>
       <c r="C11" t="s">
-        <v>943</v>
+        <v>976</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>954</v>
+        <v>987</v>
       </c>
       <c r="F11">
         <v>73</v>
@@ -10381,25 +10720,25 @@
         <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J11" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K11" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L11">
         <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N11" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O11" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -10407,16 +10746,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>933</v>
+        <v>966</v>
       </c>
       <c r="C12" t="s">
-        <v>944</v>
+        <v>977</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>955</v>
+        <v>988</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -10428,25 +10767,25 @@
         <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J12" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K12" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L12">
         <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N12" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O12" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -10467,10 +10806,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10481,7 +10820,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>0.008403361344537815</v>
+        <v>0.007982583454281567</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -10502,46 +10841,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>724</v>
+        <v>754</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -10549,16 +10888,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="C2" t="s">
-        <v>961</v>
+        <v>994</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>966</v>
+        <v>999</v>
       </c>
       <c r="F2">
         <v>18</v>
@@ -10567,28 +10906,28 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J2" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K2" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -10596,16 +10935,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="C3" t="s">
-        <v>961</v>
+        <v>994</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>966</v>
+        <v>999</v>
       </c>
       <c r="F3">
         <v>18</v>
@@ -10614,28 +10953,28 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J3" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K3" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -10643,16 +10982,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="C4" t="s">
-        <v>961</v>
+        <v>994</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>966</v>
+        <v>999</v>
       </c>
       <c r="F4">
         <v>18</v>
@@ -10661,28 +11000,28 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J4" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K4" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -10690,16 +11029,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>958</v>
+        <v>991</v>
       </c>
       <c r="C5" t="s">
-        <v>962</v>
+        <v>995</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -10708,28 +11047,28 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J5" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K5" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L5">
         <v>6</v>
       </c>
       <c r="M5" t="s">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="N5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -10737,16 +11076,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>958</v>
+        <v>991</v>
       </c>
       <c r="C6" t="s">
-        <v>962</v>
+        <v>995</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="F6">
         <v>15</v>
@@ -10755,28 +11094,28 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J6" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K6" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L6">
         <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="N6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -10784,16 +11123,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>959</v>
+        <v>992</v>
       </c>
       <c r="C7" t="s">
-        <v>963</v>
+        <v>996</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>968</v>
+        <v>1001</v>
       </c>
       <c r="F7">
         <v>18</v>
@@ -10802,28 +11141,28 @@
         <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J7" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K7" t="s">
-        <v>971</v>
+        <v>1004</v>
       </c>
       <c r="L7">
         <v>6</v>
       </c>
       <c r="M7" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
       <c r="N7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -10831,16 +11170,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>959</v>
+        <v>992</v>
       </c>
       <c r="C8" t="s">
-        <v>963</v>
+        <v>996</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>968</v>
+        <v>1001</v>
       </c>
       <c r="F8">
         <v>18</v>
@@ -10849,28 +11188,28 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J8" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K8" t="s">
-        <v>971</v>
+        <v>1004</v>
       </c>
       <c r="L8">
         <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
       <c r="N8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -10878,16 +11217,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="C9" t="s">
-        <v>964</v>
+        <v>997</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>969</v>
+        <v>1002</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -10896,28 +11235,28 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J9" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K9" t="s">
-        <v>972</v>
+        <v>1005</v>
       </c>
       <c r="L9">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
       <c r="N9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -10925,16 +11264,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="C10" t="s">
-        <v>964</v>
+        <v>997</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>969</v>
+        <v>1002</v>
       </c>
       <c r="F10">
         <v>15</v>
@@ -10943,28 +11282,28 @@
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J10" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K10" t="s">
-        <v>972</v>
+        <v>1005</v>
       </c>
       <c r="L10">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
       <c r="N10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -10972,16 +11311,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>960</v>
+        <v>993</v>
       </c>
       <c r="C11" t="s">
-        <v>965</v>
+        <v>998</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>970</v>
+        <v>1003</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -10990,28 +11329,28 @@
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J11" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K11" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N11" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O11" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -11019,16 +11358,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>960</v>
+        <v>993</v>
       </c>
       <c r="C12" t="s">
-        <v>965</v>
+        <v>998</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>970</v>
+        <v>1003</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -11037,28 +11376,28 @@
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J12" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K12" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N12" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O12" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -11079,10 +11418,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11093,7 +11432,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>0.007639419404125287</v>
+        <v>0.00725689404934688</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -11114,46 +11453,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>724</v>
+        <v>754</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -11161,16 +11500,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>973</v>
+        <v>1006</v>
       </c>
       <c r="C2" t="s">
-        <v>980</v>
+        <v>1013</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>985</v>
+        <v>1018</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -11179,28 +11518,28 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>990</v>
+        <v>1023</v>
       </c>
       <c r="I2" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J2" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K2" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -11208,16 +11547,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>973</v>
+        <v>1006</v>
       </c>
       <c r="C3" t="s">
-        <v>980</v>
+        <v>1013</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>985</v>
+        <v>1018</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -11226,28 +11565,28 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>990</v>
+        <v>1023</v>
       </c>
       <c r="I3" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J3" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K3" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -11255,16 +11594,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>974</v>
+        <v>1007</v>
       </c>
       <c r="C4" t="s">
-        <v>981</v>
+        <v>1014</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>986</v>
+        <v>1019</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -11273,28 +11612,28 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>990</v>
+        <v>1023</v>
       </c>
       <c r="I4" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J4" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K4" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -11302,16 +11641,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>975</v>
+        <v>1008</v>
       </c>
       <c r="C5" t="s">
-        <v>982</v>
+        <v>1015</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>987</v>
+        <v>1020</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -11320,28 +11659,28 @@
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>990</v>
+        <v>1023</v>
       </c>
       <c r="I5" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J5" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K5" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -11349,16 +11688,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>976</v>
+        <v>1009</v>
       </c>
       <c r="C6" t="s">
-        <v>983</v>
+        <v>1016</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>988</v>
+        <v>1021</v>
       </c>
       <c r="F6">
         <v>18</v>
@@ -11367,28 +11706,28 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>990</v>
+        <v>1023</v>
       </c>
       <c r="I6" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J6" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K6" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -11396,16 +11735,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>977</v>
+        <v>1010</v>
       </c>
       <c r="C7" t="s">
-        <v>982</v>
+        <v>1015</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>989</v>
+        <v>1022</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -11414,28 +11753,28 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>990</v>
+        <v>1023</v>
       </c>
       <c r="I7" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J7" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K7" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -11443,16 +11782,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>978</v>
+        <v>1011</v>
       </c>
       <c r="C8" t="s">
-        <v>980</v>
+        <v>1013</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>985</v>
+        <v>1018</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -11461,28 +11800,28 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>990</v>
+        <v>1023</v>
       </c>
       <c r="I8" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J8" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K8" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -11490,16 +11829,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>978</v>
+        <v>1011</v>
       </c>
       <c r="C9" t="s">
-        <v>980</v>
+        <v>1013</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>985</v>
+        <v>1018</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -11508,28 +11847,28 @@
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>990</v>
+        <v>1023</v>
       </c>
       <c r="I9" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J9" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K9" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -11537,16 +11876,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>979</v>
+        <v>1012</v>
       </c>
       <c r="C10" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>985</v>
+        <v>1018</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -11555,28 +11894,28 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>990</v>
+        <v>1023</v>
       </c>
       <c r="I10" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J10" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K10" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -11584,16 +11923,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>979</v>
+        <v>1012</v>
       </c>
       <c r="C11" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>985</v>
+        <v>1018</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -11602,28 +11941,28 @@
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>990</v>
+        <v>1023</v>
       </c>
       <c r="I11" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J11" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K11" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N11" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O11" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -11644,10 +11983,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11658,7 +11997,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.006875477463712758</v>
+        <v>0.006531204644412192</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -11679,46 +12018,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>724</v>
+        <v>754</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -11726,16 +12065,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>991</v>
+        <v>1024</v>
       </c>
       <c r="C2" t="s">
-        <v>995</v>
+        <v>1028</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>999</v>
+        <v>1032</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -11747,25 +12086,25 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J2" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K2" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
       <c r="L2">
         <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
       <c r="N2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -11773,16 +12112,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>992</v>
+        <v>1025</v>
       </c>
       <c r="C3" t="s">
-        <v>996</v>
+        <v>1029</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="F3">
         <v>16</v>
@@ -11794,25 +12133,25 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J3" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K3" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
       <c r="L3">
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="N3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -11820,16 +12159,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>992</v>
+        <v>1025</v>
       </c>
       <c r="C4" t="s">
-        <v>996</v>
+        <v>1029</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="F4">
         <v>16</v>
@@ -11841,25 +12180,25 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J4" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K4" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
       <c r="L4">
         <v>9</v>
       </c>
       <c r="M4" t="s">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="N4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -11867,16 +12206,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>993</v>
+        <v>1026</v>
       </c>
       <c r="C5" t="s">
-        <v>997</v>
+        <v>1030</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -11888,25 +12227,25 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J5" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K5" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -11914,16 +12253,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>993</v>
+        <v>1026</v>
       </c>
       <c r="C6" t="s">
-        <v>997</v>
+        <v>1030</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>1001</v>
+        <v>1034</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -11935,25 +12274,25 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J6" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K6" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -11961,16 +12300,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>994</v>
+        <v>1027</v>
       </c>
       <c r="C7" t="s">
-        <v>998</v>
+        <v>1031</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>1002</v>
+        <v>1035</v>
       </c>
       <c r="F7">
         <v>30</v>
@@ -11982,25 +12321,25 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J7" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K7" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -12008,16 +12347,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>994</v>
+        <v>1027</v>
       </c>
       <c r="C8" t="s">
-        <v>998</v>
+        <v>1031</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>1002</v>
+        <v>1035</v>
       </c>
       <c r="F8">
         <v>30</v>
@@ -12029,25 +12368,25 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J8" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K8" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -12055,16 +12394,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>994</v>
+        <v>1027</v>
       </c>
       <c r="C9" t="s">
-        <v>998</v>
+        <v>1031</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>1002</v>
+        <v>1035</v>
       </c>
       <c r="F9">
         <v>30</v>
@@ -12076,25 +12415,25 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J9" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K9" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -12102,16 +12441,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>994</v>
+        <v>1027</v>
       </c>
       <c r="C10" t="s">
-        <v>998</v>
+        <v>1031</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>1002</v>
+        <v>1035</v>
       </c>
       <c r="F10">
         <v>30</v>
@@ -12123,25 +12462,25 @@
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J10" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K10" t="s">
-        <v>1003</v>
+        <v>1036</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -12162,10 +12501,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12176,7 +12515,7 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>0.0213903743315508</v>
+        <v>0.02031930333817126</v>
       </c>
       <c r="D2">
         <v>28</v>
@@ -12200,10 +12539,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -12214,7 +12553,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.006875477463712758</v>
+        <v>0.006531204644412192</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -12235,46 +12574,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>724</v>
+        <v>754</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -12282,16 +12621,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1004</v>
+        <v>1037</v>
       </c>
       <c r="C2" t="s">
-        <v>1010</v>
+        <v>1043</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>1016</v>
+        <v>1049</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -12303,25 +12642,25 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J2" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K2" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L2">
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -12329,16 +12668,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1005</v>
+        <v>1038</v>
       </c>
       <c r="C3" t="s">
-        <v>1011</v>
+        <v>1044</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>1017</v>
+        <v>1050</v>
       </c>
       <c r="F3">
         <v>17</v>
@@ -12350,25 +12689,25 @@
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J3" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K3" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L3">
         <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -12376,16 +12715,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1005</v>
+        <v>1038</v>
       </c>
       <c r="C4" t="s">
-        <v>1011</v>
+        <v>1044</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>1017</v>
+        <v>1050</v>
       </c>
       <c r="F4">
         <v>17</v>
@@ -12397,25 +12736,25 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J4" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K4" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L4">
         <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -12423,16 +12762,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1006</v>
+        <v>1039</v>
       </c>
       <c r="C5" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>1018</v>
+        <v>1051</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -12444,25 +12783,25 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J5" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K5" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L5">
         <v>6</v>
       </c>
       <c r="M5" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -12470,16 +12809,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1006</v>
+        <v>1039</v>
       </c>
       <c r="C6" t="s">
-        <v>1012</v>
+        <v>1045</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>1018</v>
+        <v>1051</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -12491,25 +12830,25 @@
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J6" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K6" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L6">
         <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -12517,16 +12856,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1007</v>
+        <v>1040</v>
       </c>
       <c r="C7" t="s">
-        <v>1013</v>
+        <v>1046</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
       <c r="F7">
         <v>16</v>
@@ -12538,25 +12877,25 @@
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J7" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K7" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L7">
         <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -12564,16 +12903,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1007</v>
+        <v>1040</v>
       </c>
       <c r="C8" t="s">
-        <v>1013</v>
+        <v>1046</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>1019</v>
+        <v>1052</v>
       </c>
       <c r="F8">
         <v>16</v>
@@ -12585,25 +12924,25 @@
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J8" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K8" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L8">
         <v>11</v>
       </c>
       <c r="M8" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -12611,16 +12950,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1008</v>
+        <v>1041</v>
       </c>
       <c r="C9" t="s">
-        <v>1014</v>
+        <v>1047</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>1020</v>
+        <v>1053</v>
       </c>
       <c r="F9">
         <v>23</v>
@@ -12632,25 +12971,25 @@
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J9" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K9" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L9">
         <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -12658,16 +12997,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1009</v>
+        <v>1042</v>
       </c>
       <c r="C10" t="s">
-        <v>1015</v>
+        <v>1048</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>1021</v>
+        <v>1054</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -12679,25 +13018,25 @@
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J10" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K10" t="s">
-        <v>956</v>
+        <v>989</v>
       </c>
       <c r="L10">
         <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -12715,46 +13054,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>724</v>
+        <v>754</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -12762,16 +13101,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
       <c r="C2" t="s">
-        <v>755</v>
+        <v>785</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>772</v>
+        <v>802</v>
       </c>
       <c r="F2">
         <v>31</v>
@@ -12780,28 +13119,28 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J2" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K2" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L2">
         <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="N2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -12809,16 +13148,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>731</v>
+        <v>761</v>
       </c>
       <c r="C3" t="s">
-        <v>756</v>
+        <v>786</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>773</v>
+        <v>803</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -12827,28 +13166,28 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J3" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K3" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -12856,16 +13195,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>732</v>
+        <v>762</v>
       </c>
       <c r="C4" t="s">
-        <v>757</v>
+        <v>787</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>774</v>
+        <v>804</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -12874,28 +13213,28 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J4" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K4" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L4">
         <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>802</v>
+        <v>832</v>
       </c>
       <c r="N4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -12903,16 +13242,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>733</v>
+        <v>763</v>
       </c>
       <c r="C5" t="s">
-        <v>758</v>
+        <v>788</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>775</v>
+        <v>805</v>
       </c>
       <c r="F5">
         <v>28</v>
@@ -12921,28 +13260,28 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J5" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K5" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L5">
         <v>9</v>
       </c>
       <c r="M5" t="s">
-        <v>803</v>
+        <v>833</v>
       </c>
       <c r="N5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -12950,16 +13289,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C6" t="s">
-        <v>759</v>
+        <v>789</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>776</v>
+        <v>806</v>
       </c>
       <c r="F6">
         <v>11</v>
@@ -12968,28 +13307,28 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J6" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K6" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -12997,16 +13336,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>735</v>
+        <v>765</v>
       </c>
       <c r="C7" t="s">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>777</v>
+        <v>807</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -13015,28 +13354,28 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J7" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K7" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -13044,16 +13383,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>736</v>
+        <v>766</v>
       </c>
       <c r="C8" t="s">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>778</v>
+        <v>808</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -13062,28 +13401,28 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J8" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K8" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -13091,16 +13430,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>736</v>
+        <v>766</v>
       </c>
       <c r="C9" t="s">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>778</v>
+        <v>808</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -13109,28 +13448,28 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J9" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K9" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -13138,16 +13477,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>737</v>
+        <v>767</v>
       </c>
       <c r="C10" t="s">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>779</v>
+        <v>809</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -13156,28 +13495,28 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J10" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K10" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -13185,16 +13524,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>737</v>
+        <v>767</v>
       </c>
       <c r="C11" t="s">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>779</v>
+        <v>809</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -13203,28 +13542,28 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I11" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J11" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K11" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N11" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O11" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -13232,16 +13571,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="C12" t="s">
-        <v>761</v>
+        <v>791</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="F12">
         <v>9</v>
@@ -13250,28 +13589,28 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I12" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J12" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K12" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N12" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O12" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -13279,16 +13618,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>739</v>
+        <v>769</v>
       </c>
       <c r="C13" t="s">
-        <v>762</v>
+        <v>792</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>781</v>
+        <v>811</v>
       </c>
       <c r="F13">
         <v>15</v>
@@ -13297,28 +13636,28 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I13" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J13" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K13" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L13">
         <v>7</v>
       </c>
       <c r="M13" t="s">
-        <v>803</v>
+        <v>833</v>
       </c>
       <c r="N13" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O13" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -13326,16 +13665,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="C14" t="s">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>782</v>
+        <v>812</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -13344,28 +13683,28 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I14" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J14" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K14" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N14" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O14" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -13373,16 +13712,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>741</v>
+        <v>771</v>
       </c>
       <c r="C15" t="s">
-        <v>763</v>
+        <v>793</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>783</v>
+        <v>813</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -13391,28 +13730,28 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I15" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J15" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K15" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N15" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O15" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -13420,16 +13759,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>742</v>
+        <v>772</v>
       </c>
       <c r="C16" t="s">
-        <v>764</v>
+        <v>794</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>784</v>
+        <v>814</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -13438,28 +13777,28 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I16" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J16" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K16" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N16" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O16" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -13467,16 +13806,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>743</v>
+        <v>773</v>
       </c>
       <c r="C17" t="s">
-        <v>765</v>
+        <v>795</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>785</v>
+        <v>815</v>
       </c>
       <c r="F17">
         <v>12</v>
@@ -13485,28 +13824,28 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J17" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K17" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N17" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O17" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -13514,16 +13853,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>743</v>
+        <v>773</v>
       </c>
       <c r="C18" t="s">
-        <v>765</v>
+        <v>795</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>785</v>
+        <v>815</v>
       </c>
       <c r="F18">
         <v>12</v>
@@ -13532,28 +13871,28 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I18" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J18" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K18" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N18" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O18" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -13561,16 +13900,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>744</v>
+        <v>774</v>
       </c>
       <c r="C19" t="s">
-        <v>764</v>
+        <v>794</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>786</v>
+        <v>816</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -13579,28 +13918,28 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I19" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J19" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K19" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N19" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O19" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -13608,16 +13947,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>745</v>
+        <v>775</v>
       </c>
       <c r="C20" t="s">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>787</v>
+        <v>817</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -13626,28 +13965,28 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J20" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K20" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N20" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O20" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -13655,16 +13994,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>746</v>
+        <v>776</v>
       </c>
       <c r="C21" t="s">
-        <v>764</v>
+        <v>794</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>788</v>
+        <v>818</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -13673,28 +14012,28 @@
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I21" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J21" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K21" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N21" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O21" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -13702,16 +14041,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>747</v>
+        <v>777</v>
       </c>
       <c r="C22" t="s">
-        <v>764</v>
+        <v>794</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>789</v>
+        <v>819</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -13720,28 +14059,28 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I22" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J22" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K22" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N22" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O22" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -13749,16 +14088,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>748</v>
+        <v>778</v>
       </c>
       <c r="C23" t="s">
-        <v>766</v>
+        <v>796</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>790</v>
+        <v>820</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -13767,28 +14106,28 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I23" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J23" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K23" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N23" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O23" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -13796,16 +14135,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>749</v>
+        <v>779</v>
       </c>
       <c r="C24" t="s">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>791</v>
+        <v>821</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -13814,28 +14153,28 @@
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I24" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J24" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K24" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N24" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O24" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -13843,16 +14182,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>750</v>
+        <v>780</v>
       </c>
       <c r="C25" t="s">
-        <v>767</v>
+        <v>797</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>792</v>
+        <v>822</v>
       </c>
       <c r="F25">
         <v>4</v>
@@ -13861,28 +14200,28 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I25" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J25" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K25" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N25" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O25" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -13890,16 +14229,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>751</v>
+        <v>781</v>
       </c>
       <c r="C26" t="s">
-        <v>768</v>
+        <v>798</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>793</v>
+        <v>823</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -13908,28 +14247,28 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I26" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J26" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K26" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N26" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O26" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -13937,16 +14276,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>752</v>
+        <v>782</v>
       </c>
       <c r="C27" t="s">
-        <v>769</v>
+        <v>799</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>794</v>
+        <v>824</v>
       </c>
       <c r="F27">
         <v>5</v>
@@ -13955,28 +14294,28 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I27" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J27" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K27" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N27" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O27" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -13984,16 +14323,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>753</v>
+        <v>783</v>
       </c>
       <c r="C28" t="s">
-        <v>770</v>
+        <v>800</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>795</v>
+        <v>825</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -14002,28 +14341,28 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I28" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J28" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K28" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N28" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O28" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -14031,16 +14370,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>754</v>
+        <v>784</v>
       </c>
       <c r="C29" t="s">
-        <v>771</v>
+        <v>801</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>796</v>
+        <v>826</v>
       </c>
       <c r="F29">
         <v>16</v>
@@ -14049,28 +14388,28 @@
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I29" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J29" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K29" t="s">
-        <v>799</v>
+        <v>829</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N29" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O29" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -14091,10 +14430,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -14105,7 +14444,7 @@
         <v>19</v>
       </c>
       <c r="C2">
-        <v>0.01451489686783804</v>
+        <v>0.01378809869375907</v>
       </c>
       <c r="D2">
         <v>19</v>
@@ -14126,46 +14465,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>724</v>
+        <v>754</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -14173,16 +14512,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>805</v>
+        <v>835</v>
       </c>
       <c r="C2" t="s">
-        <v>815</v>
+        <v>845</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>825</v>
+        <v>855</v>
       </c>
       <c r="F2">
         <v>12</v>
@@ -14194,25 +14533,25 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J2" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K2" t="s">
-        <v>835</v>
+        <v>865</v>
       </c>
       <c r="L2">
         <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -14220,16 +14559,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>805</v>
+        <v>835</v>
       </c>
       <c r="C3" t="s">
-        <v>815</v>
+        <v>845</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>825</v>
+        <v>855</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -14241,25 +14580,25 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J3" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K3" t="s">
-        <v>835</v>
+        <v>865</v>
       </c>
       <c r="L3">
         <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -14267,16 +14606,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>806</v>
+        <v>836</v>
       </c>
       <c r="C4" t="s">
-        <v>816</v>
+        <v>846</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>826</v>
+        <v>856</v>
       </c>
       <c r="F4">
         <v>18</v>
@@ -14288,25 +14627,25 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J4" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K4" t="s">
-        <v>835</v>
+        <v>865</v>
       </c>
       <c r="L4">
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
       <c r="N4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -14314,16 +14653,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>806</v>
+        <v>836</v>
       </c>
       <c r="C5" t="s">
-        <v>816</v>
+        <v>846</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>826</v>
+        <v>856</v>
       </c>
       <c r="F5">
         <v>18</v>
@@ -14335,25 +14674,25 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J5" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K5" t="s">
-        <v>835</v>
+        <v>865</v>
       </c>
       <c r="L5">
         <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
       <c r="N5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -14361,16 +14700,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>807</v>
+        <v>837</v>
       </c>
       <c r="C6" t="s">
-        <v>817</v>
+        <v>847</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>827</v>
+        <v>857</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -14382,25 +14721,25 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J6" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K6" t="s">
-        <v>835</v>
+        <v>865</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
       <c r="N6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -14408,16 +14747,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>807</v>
+        <v>837</v>
       </c>
       <c r="C7" t="s">
-        <v>817</v>
+        <v>847</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>827</v>
+        <v>857</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -14429,25 +14768,25 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J7" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K7" t="s">
-        <v>835</v>
+        <v>865</v>
       </c>
       <c r="L7">
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
       <c r="N7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -14455,16 +14794,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>808</v>
+        <v>838</v>
       </c>
       <c r="C8" t="s">
-        <v>818</v>
+        <v>848</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>828</v>
+        <v>858</v>
       </c>
       <c r="F8">
         <v>23</v>
@@ -14476,25 +14815,25 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J8" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K8" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L8">
         <v>8</v>
       </c>
       <c r="M8" t="s">
-        <v>803</v>
+        <v>833</v>
       </c>
       <c r="N8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -14502,16 +14841,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>809</v>
+        <v>839</v>
       </c>
       <c r="C9" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>829</v>
+        <v>859</v>
       </c>
       <c r="F9">
         <v>45</v>
@@ -14523,25 +14862,25 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J9" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K9" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L9">
         <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
       <c r="N9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -14549,16 +14888,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>810</v>
+        <v>840</v>
       </c>
       <c r="C10" t="s">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>830</v>
+        <v>860</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -14570,25 +14909,25 @@
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J10" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K10" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -14596,16 +14935,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>810</v>
+        <v>840</v>
       </c>
       <c r="C11" t="s">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>830</v>
+        <v>860</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -14617,25 +14956,25 @@
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J11" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K11" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N11" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O11" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -14643,16 +14982,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>810</v>
+        <v>840</v>
       </c>
       <c r="C12" t="s">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>830</v>
+        <v>860</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -14664,25 +15003,25 @@
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J12" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K12" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N12" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O12" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -14690,16 +15029,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>810</v>
+        <v>840</v>
       </c>
       <c r="C13" t="s">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>830</v>
+        <v>860</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -14711,25 +15050,25 @@
         <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J13" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K13" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N13" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O13" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -14737,16 +15076,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>811</v>
+        <v>841</v>
       </c>
       <c r="C14" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>831</v>
+        <v>861</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -14758,25 +15097,25 @@
         <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J14" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K14" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L14">
         <v>8</v>
       </c>
       <c r="M14" t="s">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="N14" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O14" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -14784,16 +15123,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>811</v>
+        <v>841</v>
       </c>
       <c r="C15" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>831</v>
+        <v>861</v>
       </c>
       <c r="F15">
         <v>13</v>
@@ -14805,25 +15144,25 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J15" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K15" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L15">
         <v>8</v>
       </c>
       <c r="M15" t="s">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="N15" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O15" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -14831,16 +15170,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>812</v>
+        <v>842</v>
       </c>
       <c r="C16" t="s">
-        <v>822</v>
+        <v>852</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>832</v>
+        <v>862</v>
       </c>
       <c r="F16">
         <v>19</v>
@@ -14852,25 +15191,25 @@
         <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J16" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K16" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L16">
         <v>10</v>
       </c>
       <c r="M16" t="s">
-        <v>803</v>
+        <v>833</v>
       </c>
       <c r="N16" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O16" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -14878,16 +15217,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>813</v>
+        <v>843</v>
       </c>
       <c r="C17" t="s">
-        <v>823</v>
+        <v>853</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>833</v>
+        <v>863</v>
       </c>
       <c r="F17">
         <v>18</v>
@@ -14899,25 +15238,25 @@
         <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J17" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K17" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N17" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O17" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -14925,16 +15264,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>813</v>
+        <v>843</v>
       </c>
       <c r="C18" t="s">
-        <v>823</v>
+        <v>853</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>833</v>
+        <v>863</v>
       </c>
       <c r="F18">
         <v>18</v>
@@ -14946,25 +15285,25 @@
         <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J18" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K18" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N18" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O18" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -14972,16 +15311,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>813</v>
+        <v>843</v>
       </c>
       <c r="C19" t="s">
-        <v>823</v>
+        <v>853</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>833</v>
+        <v>863</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -14993,25 +15332,25 @@
         <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J19" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K19" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N19" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O19" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -15019,16 +15358,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>814</v>
+        <v>844</v>
       </c>
       <c r="C20" t="s">
-        <v>824</v>
+        <v>854</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>834</v>
+        <v>864</v>
       </c>
       <c r="F20">
         <v>39</v>
@@ -15040,25 +15379,25 @@
         <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J20" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K20" t="s">
-        <v>835</v>
+        <v>865</v>
       </c>
       <c r="L20">
         <v>37</v>
       </c>
       <c r="M20" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="N20" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O20" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -15079,10 +15418,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15090,13 +15429,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>0.009931245225362872</v>
+        <v>0.01015965166908563</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -15106,7 +15445,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15114,46 +15453,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>724</v>
+        <v>754</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -15161,46 +15500,46 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>839</v>
+        <v>869</v>
       </c>
       <c r="C2" t="s">
-        <v>847</v>
+        <v>880</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>855</v>
+        <v>890</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>305</v>
+        <v>901</v>
       </c>
       <c r="I2" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J2" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K2" t="s">
-        <v>836</v>
+        <v>865</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>802</v>
+        <v>831</v>
       </c>
       <c r="N2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -15208,46 +15547,46 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>840</v>
+        <v>869</v>
       </c>
       <c r="C3" t="s">
-        <v>848</v>
+        <v>880</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>856</v>
+        <v>890</v>
       </c>
       <c r="F3">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>305</v>
+        <v>901</v>
       </c>
       <c r="I3" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J3" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K3" t="s">
-        <v>836</v>
+        <v>865</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>803</v>
+        <v>831</v>
       </c>
       <c r="N3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -15255,46 +15594,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>840</v>
+        <v>869</v>
       </c>
       <c r="C4" t="s">
-        <v>848</v>
+        <v>880</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>856</v>
+        <v>890</v>
       </c>
       <c r="F4">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>305</v>
+        <v>901</v>
       </c>
       <c r="I4" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J4" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K4" t="s">
-        <v>836</v>
+        <v>865</v>
       </c>
       <c r="L4">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>803</v>
+        <v>831</v>
       </c>
       <c r="N4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -15302,46 +15641,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>840</v>
+        <v>870</v>
       </c>
       <c r="C5" t="s">
-        <v>848</v>
+        <v>881</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>856</v>
+        <v>891</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>305</v>
+        <v>901</v>
       </c>
       <c r="I5" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J5" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K5" t="s">
-        <v>836</v>
+        <v>865</v>
       </c>
       <c r="L5">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>803</v>
+        <v>831</v>
       </c>
       <c r="N5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -15349,46 +15688,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>841</v>
+        <v>871</v>
       </c>
       <c r="C6" t="s">
-        <v>849</v>
+        <v>882</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>857</v>
+        <v>892</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>305</v>
+        <v>901</v>
       </c>
       <c r="I6" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J6" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K6" t="s">
-        <v>836</v>
+        <v>865</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>801</v>
+        <v>902</v>
       </c>
       <c r="N6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -15396,46 +15735,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>842</v>
+        <v>872</v>
       </c>
       <c r="C7" t="s">
-        <v>850</v>
+        <v>883</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>858</v>
+        <v>893</v>
       </c>
       <c r="F7">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>305</v>
+        <v>901</v>
       </c>
       <c r="I7" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J7" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K7" t="s">
-        <v>835</v>
+        <v>865</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>803</v>
+        <v>830</v>
       </c>
       <c r="N7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -15443,46 +15782,46 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>843</v>
+        <v>872</v>
       </c>
       <c r="C8" t="s">
-        <v>851</v>
+        <v>883</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>859</v>
+        <v>893</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>305</v>
+        <v>901</v>
       </c>
       <c r="I8" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J8" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K8" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>801</v>
+        <v>830</v>
       </c>
       <c r="N8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -15490,46 +15829,46 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>844</v>
+        <v>873</v>
       </c>
       <c r="C9" t="s">
-        <v>852</v>
+        <v>884</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>860</v>
+        <v>894</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>305</v>
+        <v>901</v>
       </c>
       <c r="I9" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J9" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K9" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M9" t="s">
-        <v>801</v>
+        <v>902</v>
       </c>
       <c r="N9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -15537,46 +15876,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>844</v>
+        <v>874</v>
       </c>
       <c r="C10" t="s">
-        <v>852</v>
+        <v>884</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>860</v>
+        <v>895</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>305</v>
+        <v>901</v>
       </c>
       <c r="I10" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J10" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K10" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>801</v>
+        <v>902</v>
       </c>
       <c r="N10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -15584,46 +15923,46 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>845</v>
+        <v>875</v>
       </c>
       <c r="C11" t="s">
-        <v>853</v>
+        <v>885</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>861</v>
+        <v>896</v>
       </c>
       <c r="F11">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>305</v>
+        <v>901</v>
       </c>
       <c r="I11" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J11" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K11" t="s">
-        <v>836</v>
+        <v>865</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>802</v>
+        <v>832</v>
       </c>
       <c r="N11" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O11" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -15631,46 +15970,46 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>845</v>
+        <v>876</v>
       </c>
       <c r="C12" t="s">
-        <v>853</v>
+        <v>886</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>861</v>
+        <v>897</v>
       </c>
       <c r="F12">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>305</v>
+        <v>901</v>
       </c>
       <c r="I12" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J12" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K12" t="s">
-        <v>836</v>
+        <v>865</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>802</v>
+        <v>833</v>
       </c>
       <c r="N12" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O12" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -15678,46 +16017,140 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>846</v>
+        <v>877</v>
       </c>
       <c r="C13" t="s">
-        <v>854</v>
+        <v>887</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>862</v>
+        <v>898</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>305</v>
+        <v>901</v>
       </c>
       <c r="I13" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J13" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K13" t="s">
-        <v>836</v>
+        <v>865</v>
       </c>
       <c r="L13">
+        <v>16</v>
+      </c>
+      <c r="M13" t="s">
+        <v>902</v>
+      </c>
+      <c r="N13" t="s">
+        <v>834</v>
+      </c>
+      <c r="O13" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>878</v>
+      </c>
+      <c r="C14" t="s">
+        <v>888</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>899</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>901</v>
+      </c>
+      <c r="I14" t="s">
+        <v>827</v>
+      </c>
+      <c r="J14" t="s">
+        <v>828</v>
+      </c>
+      <c r="K14" t="s">
+        <v>865</v>
+      </c>
+      <c r="L14">
         <v>0</v>
       </c>
-      <c r="M13" t="s">
-        <v>801</v>
-      </c>
-      <c r="N13" t="s">
-        <v>804</v>
-      </c>
-      <c r="O13" t="s">
-        <v>804</v>
+      <c r="M14" t="s">
+        <v>831</v>
+      </c>
+      <c r="N14" t="s">
+        <v>834</v>
+      </c>
+      <c r="O14" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>879</v>
+      </c>
+      <c r="C15" t="s">
+        <v>889</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>900</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>901</v>
+      </c>
+      <c r="I15" t="s">
+        <v>827</v>
+      </c>
+      <c r="J15" t="s">
+        <v>828</v>
+      </c>
+      <c r="K15" t="s">
+        <v>865</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>833</v>
+      </c>
+      <c r="N15" t="s">
+        <v>834</v>
+      </c>
+      <c r="O15" t="s">
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -15738,10 +16171,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -15752,10 +16185,10 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>0.009931245225362872</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -15765,7 +16198,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15773,46 +16206,46 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>724</v>
+        <v>754</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -15820,46 +16253,46 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>864</v>
+        <v>903</v>
       </c>
       <c r="C2" t="s">
-        <v>873</v>
+        <v>910</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>881</v>
+        <v>917</v>
       </c>
       <c r="F2">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>891</v>
+        <v>323</v>
       </c>
       <c r="I2" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J2" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K2" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>801</v>
+        <v>832</v>
       </c>
       <c r="N2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O2" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -15867,46 +16300,46 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="C3" t="s">
-        <v>873</v>
+        <v>911</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>881</v>
+        <v>918</v>
       </c>
       <c r="F3">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>891</v>
+        <v>323</v>
       </c>
       <c r="I3" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J3" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K3" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>801</v>
+        <v>833</v>
       </c>
       <c r="N3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O3" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -15914,46 +16347,46 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="C4" t="s">
-        <v>873</v>
+        <v>911</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>881</v>
+        <v>918</v>
       </c>
       <c r="F4">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>891</v>
+        <v>323</v>
       </c>
       <c r="I4" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J4" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K4" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>801</v>
+        <v>833</v>
       </c>
       <c r="N4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O4" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -15961,46 +16394,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="C5" t="s">
-        <v>874</v>
+        <v>911</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>882</v>
+        <v>918</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>891</v>
+        <v>323</v>
       </c>
       <c r="I5" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J5" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K5" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="L5">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>892</v>
+        <v>833</v>
       </c>
       <c r="N5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O5" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -16008,46 +16441,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>866</v>
+        <v>904</v>
       </c>
       <c r="C6" t="s">
-        <v>875</v>
+        <v>912</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>883</v>
+        <v>919</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>891</v>
+        <v>323</v>
       </c>
       <c r="I6" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J6" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K6" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>800</v>
+        <v>831</v>
       </c>
       <c r="N6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O6" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -16055,46 +16488,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>866</v>
+        <v>905</v>
       </c>
       <c r="C7" t="s">
-        <v>875</v>
+        <v>913</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>883</v>
+        <v>920</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>891</v>
+        <v>323</v>
       </c>
       <c r="I7" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J7" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K7" t="s">
-        <v>835</v>
+        <v>865</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="M7" t="s">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="N7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O7" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -16102,46 +16535,46 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>840</v>
+        <v>906</v>
       </c>
       <c r="C8" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>884</v>
+        <v>921</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>891</v>
+        <v>323</v>
       </c>
       <c r="I8" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J8" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K8" t="s">
-        <v>835</v>
+        <v>925</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>892</v>
+        <v>831</v>
       </c>
       <c r="N8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O8" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -16149,46 +16582,46 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>867</v>
+        <v>907</v>
       </c>
       <c r="C9" t="s">
-        <v>876</v>
+        <v>914</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>885</v>
+        <v>922</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>891</v>
+        <v>323</v>
       </c>
       <c r="I9" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J9" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K9" t="s">
-        <v>835</v>
+        <v>925</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>892</v>
+        <v>831</v>
       </c>
       <c r="N9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O9" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -16196,46 +16629,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>868</v>
+        <v>907</v>
       </c>
       <c r="C10" t="s">
-        <v>877</v>
+        <v>914</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>886</v>
+        <v>922</v>
       </c>
       <c r="F10">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>891</v>
+        <v>323</v>
       </c>
       <c r="I10" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J10" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K10" t="s">
-        <v>835</v>
+        <v>925</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>802</v>
+        <v>831</v>
       </c>
       <c r="N10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O10" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -16243,46 +16676,46 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>869</v>
+        <v>908</v>
       </c>
       <c r="C11" t="s">
-        <v>878</v>
+        <v>915</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>887</v>
+        <v>923</v>
       </c>
       <c r="F11">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>891</v>
+        <v>323</v>
       </c>
       <c r="I11" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J11" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K11" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M11" t="s">
-        <v>803</v>
+        <v>832</v>
       </c>
       <c r="N11" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O11" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -16290,46 +16723,46 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>870</v>
+        <v>908</v>
       </c>
       <c r="C12" t="s">
-        <v>879</v>
+        <v>915</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>888</v>
+        <v>923</v>
       </c>
       <c r="F12">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>891</v>
+        <v>323</v>
       </c>
       <c r="I12" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J12" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K12" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M12" t="s">
-        <v>892</v>
+        <v>832</v>
       </c>
       <c r="N12" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O12" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -16337,93 +16770,46 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>871</v>
+        <v>909</v>
       </c>
       <c r="C13" t="s">
-        <v>851</v>
+        <v>916</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>889</v>
+        <v>924</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>891</v>
+        <v>323</v>
       </c>
       <c r="I13" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="J13" t="s">
-        <v>798</v>
+        <v>828</v>
       </c>
       <c r="K13" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>801</v>
+        <v>831</v>
       </c>
       <c r="N13" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
       <c r="O13" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>872</v>
-      </c>
-      <c r="C14" t="s">
-        <v>880</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>890</v>
-      </c>
-      <c r="F14">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" t="s">
-        <v>891</v>
-      </c>
-      <c r="I14" t="s">
-        <v>797</v>
-      </c>
-      <c r="J14" t="s">
-        <v>798</v>
-      </c>
-      <c r="K14" t="s">
-        <v>835</v>
-      </c>
-      <c r="L14">
-        <v>4</v>
-      </c>
-      <c r="M14" t="s">
-        <v>803</v>
-      </c>
-      <c r="N14" t="s">
-        <v>804</v>
-      </c>
-      <c r="O14" t="s">
-        <v>804</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
